--- a/artfynd/A 60537-2020.xlsx
+++ b/artfynd/A 60537-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112438835</v>
+        <v>112438834</v>
       </c>
       <c r="B2" t="n">
-        <v>56575</v>
+        <v>56446</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -785,7 +785,7 @@
         <v>112438836</v>
       </c>
       <c r="B3" t="n">
-        <v>89755</v>
+        <v>89769</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112438834</v>
+        <v>112438835</v>
       </c>
       <c r="B4" t="n">
-        <v>56446</v>
+        <v>56575</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -900,21 +900,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>

--- a/artfynd/A 60537-2020.xlsx
+++ b/artfynd/A 60537-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112438834</v>
+        <v>112438835</v>
       </c>
       <c r="B2" t="n">
-        <v>56446</v>
+        <v>56575</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112438835</v>
+        <v>112438834</v>
       </c>
       <c r="B4" t="n">
-        <v>56575</v>
+        <v>56446</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -900,21 +900,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
